--- a/biology/Médecine/Classification_de_Killip/Classification_de_Killip.xlsx
+++ b/biology/Médecine/Classification_de_Killip/Classification_de_Killip.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification de Killip est utilisée chez les patients présentant un infarctus du myocarde (ou crise cardiaque). Elle prend en compte l'examen physique et la présence d'une insuffisance cardiaque afin de prédire et de stratifier leur risque de mortalité. Les individus ayant une classe de Killip faible sont moins susceptibles de mourir dans les trente jours suivant leur infarctus que les individus ayant une classe de Killip élevée[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification de Killip est utilisée chez les patients présentant un infarctus du myocarde (ou crise cardiaque). Elle prend en compte l'examen physique et la présence d'une insuffisance cardiaque afin de prédire et de stratifier leur risque de mortalité. Les individus ayant une classe de Killip faible sont moins susceptibles de mourir dans les trente jours suivant leur infarctus que les individus ayant une classe de Killip élevée. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>L'étude</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'étude se basait sur une série de cas avec des résultats sans insu, non objectifs, non ajustés pour les facteurs de confusion, ni validés dans un ensemble indépendant de patients. Le cadre était l'unité de soins intensifs de cardiologie d'un centre hospitalier universitaire aux États-Unis[réf. nécessaire].
 Deux cent cinquante patients présentant un infarctus du myocarde ont été inclus dans l'étude (âgés de 28 à 94 ans, avec une moyenne d'âge de 64 ans, 72 % des patients étant des hommes). Les patients ayant subi un arrêt cardiorespiratoire avant l'admission ont été exclus.
@@ -547,10 +561,12 @@
           <t>Conclusions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les chiffres de mortalité ci-dessous étaient exacts en 1967. De le cadre d'une prise en charge actuelle, ils pourraient avoir diminué de 30 à 50 % pour chaque classe[réf. nécessaire].
-Dans un intervalle de confiance de 95 %, les résultats pour les patients étaient les suivants[1] :
+Dans un intervalle de confiance de 95 %, les résultats pour les patients étaient les suivants :
 La classification de Killip a joué un rôle fondamental en cardiologie, ayant été utilisée comme critère de stratification pour de nombreuses autres études. L'aggravation de la classe de Killip chez un patient s'est révélée indépendamment associée à une mortalité plus importante et ce dans plusieurs études.
 Une classification de Killip de classe I ainsi que l'absence de signe d'hypotension ou de bradycardie, chez un patient présentant un syndrome coronarien aigu, doit faire envisager un traitement par un bêta-bloquant intraveineux immédiat.
 </t>
